--- a/templates/export/route.xlsx
+++ b/templates/export/route.xlsx
@@ -94,9 +94,6 @@
     <t>Period:</t>
   </si>
   <si>
-    <t>${from.toString("YYYY.MM.dd HH:mm:ss")+" - "+to.toString("YYYY.MM.dd HH:mm:ss")}</t>
-  </si>
-  <si>
     <t>Valid</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>${position.valid}</t>
   </si>
   <si>
-    <t>${new("org.joda.time.DateTime", position.fixTime, timezone).toString("YYYY.MM.dd HH:mm:ss")}</t>
-  </si>
-  <si>
     <t>${position.latitude}</t>
   </si>
   <si>
@@ -143,6 +137,12 @@
   </si>
   <si>
     <t>${util.hyperlink("".format("https://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", position.latitude, position.longitude), position.getAddress() == null ? "".format("%1$f°, %2$f°", position.latitude, position.longitude) : position.address)}</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", position.fixTime, locale, timezone)}</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1082,54 +1082,54 @@
     </row>
     <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="G9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
